--- a/文件/服務對應表.xlsx
+++ b/文件/服務對應表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJ\source\Esun.co-work\EnterpriseFrontendPlatform\文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{878F180F-0AA4-4D86-80BC-D7D6D8FD7A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3278CEC-1ED9-4794-9BCE-4F2A9D1861B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6075" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{26C019EA-A5F1-4D47-942E-5DD9EF30FDE9}"/>
+    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{26C019EA-A5F1-4D47-942E-5DD9EF30FDE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -428,47 +428,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339C08A8-2000-441F-BF84-A1100D1F022C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
